--- a/TP_Testes.xlsx
+++ b/TP_Testes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilizador\Desktop\Pedro\2o Ano\1o Semestre\IIA\TP\tp_iia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CFCF44-B1A6-407D-9B70-94F8DCE9FDFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CB12C5-5244-45E2-9609-52F155D22E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F444EBC4-F813-4FD1-88AE-F973EB7F9AB3}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="33">
   <si>
     <t>Introdução à Inteligência Artificial - Estudo Experimental do Trabalho Prático</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Modelo Base</t>
   </si>
   <si>
-    <t>Hipotese 1</t>
-  </si>
-  <si>
     <t>Basics</t>
   </si>
   <si>
@@ -68,9 +65,6 @@
     <t>Dados de Entrada</t>
   </si>
   <si>
-    <t>Dados de Saída</t>
-  </si>
-  <si>
     <t>Basics Vivos</t>
   </si>
   <si>
@@ -137,15 +131,23 @@
     <t>Exp 15</t>
   </si>
   <si>
-    <t>Experiencias</t>
+    <t>Hipotese 1 -  Sobrevivência dos Experts com um elevado número (95%) de Basics no ambiente</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -267,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -279,6 +281,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -593,51 +596,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE8E33B-214D-4F57-8F69-039E54634E93}">
-  <dimension ref="A1:AB10"/>
+  <dimension ref="A1:CE10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="7.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" customWidth="1"/>
-    <col min="11" max="11" width="5.85546875" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" customWidth="1"/>
-    <col min="13" max="13" width="22.5703125" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" customWidth="1"/>
-    <col min="16" max="16" width="10.42578125" customWidth="1"/>
-    <col min="17" max="17" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="20.85546875" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" customWidth="1"/>
+    <col min="17" max="17" width="20.85546875" customWidth="1"/>
     <col min="18" max="18" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+    </row>
+    <row r="5" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:83" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:83" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -645,124 +654,370 @@
       <c r="E7" s="3"/>
       <c r="F7" s="4"/>
       <c r="G7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="J7" s="3"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
       <c r="M7" s="4"/>
       <c r="N7" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
       <c r="AB7" s="4"/>
+      <c r="AC7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="4"/>
+      <c r="AR7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AS7" s="3"/>
+      <c r="AT7" s="3"/>
+      <c r="AU7" s="3"/>
+      <c r="AV7" s="4"/>
+      <c r="AW7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AX7" s="3"/>
+      <c r="AY7" s="3"/>
+      <c r="AZ7" s="3"/>
+      <c r="BA7" s="4"/>
+      <c r="BB7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="BC7" s="3"/>
+      <c r="BD7" s="3"/>
+      <c r="BE7" s="3"/>
+      <c r="BF7" s="4"/>
+      <c r="BG7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="BH7" s="3"/>
+      <c r="BI7" s="3"/>
+      <c r="BJ7" s="3"/>
+      <c r="BK7" s="4"/>
+      <c r="BL7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="BM7" s="3"/>
+      <c r="BN7" s="3"/>
+      <c r="BO7" s="3"/>
+      <c r="BP7" s="4"/>
+      <c r="BQ7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="BR7" s="3"/>
+      <c r="BS7" s="3"/>
+      <c r="BT7" s="3"/>
+      <c r="BU7" s="4"/>
+      <c r="BV7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="BW7" s="3"/>
+      <c r="BX7" s="3"/>
+      <c r="BY7" s="3"/>
+      <c r="BZ7" s="4"/>
+      <c r="CA7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="CB7" s="3"/>
+      <c r="CC7" s="3"/>
+      <c r="CD7" s="3"/>
+      <c r="CE7" s="4"/>
     </row>
-    <row r="8" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:83" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="F8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>8</v>
-      </c>
       <c r="G8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="P8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="R8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="S8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="T8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="U8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="V8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="W8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="X8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB8" s="9" t="s">
-        <v>33</v>
+        <v>13</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="S8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="U8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="V8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="W8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="X8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AV8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AW8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AY8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="BA8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BB8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="BC8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="BD8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="BE8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="BF8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BG8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="BH8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="BI8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="BJ8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="BK8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BL8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="BM8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="BN8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="BO8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="BP8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BQ8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="BR8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="BS8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="BT8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="BU8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BV8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="BW8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="BX8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="BY8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="BZ8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="CA8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="CB8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="CC8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="CD8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="CE8" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:83" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
     </row>
   </sheetData>

--- a/TP_Testes.xlsx
+++ b/TP_Testes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilizador\Desktop\Pedro\2o Ano\1o Semestre\IIA\TP\tp_iia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CB12C5-5244-45E2-9609-52F155D22E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607790F4-7339-4CDE-9C60-05CF51E7ECFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F444EBC4-F813-4FD1-88AE-F973EB7F9AB3}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="33">
   <si>
     <t>Introdução à Inteligência Artificial - Estudo Experimental do Trabalho Prático</t>
   </si>
@@ -269,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -282,6 +282,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -596,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE8E33B-214D-4F57-8F69-039E54634E93}">
-  <dimension ref="A1:CE10"/>
+  <dimension ref="A1:CF10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,40 +612,41 @@
     <col min="5" max="5" width="15.5703125" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="23.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" customWidth="1"/>
-    <col min="12" max="12" width="18.85546875" customWidth="1"/>
-    <col min="13" max="13" width="6.85546875" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" customWidth="1"/>
-    <col min="15" max="15" width="20.85546875" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" customWidth="1"/>
-    <col min="17" max="17" width="20.85546875" customWidth="1"/>
-    <col min="18" max="18" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" customWidth="1"/>
+    <col min="14" max="14" width="6.85546875" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" customWidth="1"/>
+    <col min="16" max="16" width="20.85546875" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" customWidth="1"/>
+    <col min="18" max="18" width="20.85546875" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:83" x14ac:dyDescent="0.25">
-      <c r="K4" s="11"/>
+    <row r="4" spans="1:84" x14ac:dyDescent="0.25">
       <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:83" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:83" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:84" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:84" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -656,114 +658,115 @@
       <c r="G7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="2" t="s">
+      <c r="H7" s="3"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="2" t="s">
+      <c r="M7" s="3"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="2" t="s">
+      <c r="R7" s="3"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="2" t="s">
+      <c r="W7" s="3"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="2" t="s">
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AD7" s="3"/>
       <c r="AE7" s="3"/>
       <c r="AF7" s="3"/>
-      <c r="AG7" s="4"/>
-      <c r="AH7" s="2" t="s">
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AI7" s="3"/>
       <c r="AJ7" s="3"/>
       <c r="AK7" s="3"/>
-      <c r="AL7" s="4"/>
-      <c r="AM7" s="2" t="s">
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AN7" s="3"/>
       <c r="AO7" s="3"/>
       <c r="AP7" s="3"/>
-      <c r="AQ7" s="4"/>
-      <c r="AR7" s="2" t="s">
+      <c r="AQ7" s="3"/>
+      <c r="AR7" s="4"/>
+      <c r="AS7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AS7" s="3"/>
       <c r="AT7" s="3"/>
       <c r="AU7" s="3"/>
-      <c r="AV7" s="4"/>
-      <c r="AW7" s="2" t="s">
+      <c r="AV7" s="3"/>
+      <c r="AW7" s="4"/>
+      <c r="AX7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AX7" s="3"/>
       <c r="AY7" s="3"/>
       <c r="AZ7" s="3"/>
-      <c r="BA7" s="4"/>
-      <c r="BB7" s="2" t="s">
+      <c r="BA7" s="3"/>
+      <c r="BB7" s="4"/>
+      <c r="BC7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="BC7" s="3"/>
       <c r="BD7" s="3"/>
       <c r="BE7" s="3"/>
-      <c r="BF7" s="4"/>
-      <c r="BG7" s="2" t="s">
+      <c r="BF7" s="3"/>
+      <c r="BG7" s="4"/>
+      <c r="BH7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="BH7" s="3"/>
       <c r="BI7" s="3"/>
       <c r="BJ7" s="3"/>
-      <c r="BK7" s="4"/>
-      <c r="BL7" s="2" t="s">
+      <c r="BK7" s="3"/>
+      <c r="BL7" s="4"/>
+      <c r="BM7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="BM7" s="3"/>
       <c r="BN7" s="3"/>
       <c r="BO7" s="3"/>
-      <c r="BP7" s="4"/>
-      <c r="BQ7" s="2" t="s">
+      <c r="BP7" s="3"/>
+      <c r="BQ7" s="4"/>
+      <c r="BR7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="BR7" s="3"/>
       <c r="BS7" s="3"/>
       <c r="BT7" s="3"/>
-      <c r="BU7" s="4"/>
-      <c r="BV7" s="2" t="s">
+      <c r="BU7" s="3"/>
+      <c r="BV7" s="4"/>
+      <c r="BW7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="BW7" s="3"/>
       <c r="BX7" s="3"/>
       <c r="BY7" s="3"/>
-      <c r="BZ7" s="4"/>
-      <c r="CA7" s="2" t="s">
+      <c r="BZ7" s="3"/>
+      <c r="CA7" s="4"/>
+      <c r="CB7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="CB7" s="3"/>
       <c r="CC7" s="3"/>
       <c r="CD7" s="3"/>
-      <c r="CE7" s="4"/>
+      <c r="CE7" s="3"/>
+      <c r="CF7" s="4"/>
     </row>
-    <row r="8" spans="1:83" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:84" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>2</v>
       </c>
@@ -788,236 +791,239 @@
       <c r="H8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>11</v>
+      <c r="I8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="N8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="S8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="T8" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="T8" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="U8" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="X8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y8" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="X8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y8" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="Z8" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD8" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="AC8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD8" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="AE8" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="AI8" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="AH8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI8" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="AJ8" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AM8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="AN8" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="AM8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN8" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="AO8" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AR8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="AS8" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="AR8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS8" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="AT8" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AW8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="AX8" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="AW8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX8" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="AY8" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="BB8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="BC8" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="BB8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC8" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="BD8" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BE8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BF8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="BG8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="BH8" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="BG8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BH8" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="BI8" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BJ8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BK8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="BL8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="BM8" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="BL8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BM8" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="BN8" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BO8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BP8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="BQ8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="BR8" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="BQ8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BR8" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="BS8" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BT8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BU8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="BV8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="BW8" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="BV8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BW8" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="BX8" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BY8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BZ8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="CA8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="CB8" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="CA8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="CB8" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="CC8" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CD8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CE8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="CF8" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:84" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
     </row>
   </sheetData>

--- a/TP_Testes.xlsx
+++ b/TP_Testes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilizador\Desktop\Pedro\2o Ano\1o Semestre\IIA\TP\tp_iia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607790F4-7339-4CDE-9C60-05CF51E7ECFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29598CE5-34C5-4D0D-963C-9EDEA24F2574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F444EBC4-F813-4FD1-88AE-F973EB7F9AB3}"/>
   </bookViews>
@@ -175,7 +175,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -265,11 +265,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -279,10 +336,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,7 +660,7 @@
   <dimension ref="A1:CF10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,8 +697,8 @@
       </c>
     </row>
     <row r="4" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -655,11 +715,11 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="4"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="15"/>
       <c r="J7" s="2" t="s">
         <v>17</v>
       </c>
@@ -782,19 +842,19 @@
       <c r="E8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" s="10" t="s">
+      <c r="I8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K8" s="7" t="s">
@@ -809,7 +869,7 @@
       <c r="N8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="O8" s="10" t="s">
+      <c r="O8" s="9" t="s">
         <v>10</v>
       </c>
       <c r="P8" s="7" t="s">
@@ -824,7 +884,7 @@
       <c r="S8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="T8" s="10" t="s">
+      <c r="T8" s="9" t="s">
         <v>10</v>
       </c>
       <c r="U8" s="7" t="s">
@@ -839,7 +899,7 @@
       <c r="X8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="Y8" s="10" t="s">
+      <c r="Y8" s="9" t="s">
         <v>10</v>
       </c>
       <c r="Z8" s="7" t="s">
@@ -854,7 +914,7 @@
       <c r="AC8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AD8" s="10" t="s">
+      <c r="AD8" s="9" t="s">
         <v>10</v>
       </c>
       <c r="AE8" s="7" t="s">
@@ -869,7 +929,7 @@
       <c r="AH8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AI8" s="10" t="s">
+      <c r="AI8" s="9" t="s">
         <v>10</v>
       </c>
       <c r="AJ8" s="7" t="s">
@@ -884,7 +944,7 @@
       <c r="AM8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AN8" s="10" t="s">
+      <c r="AN8" s="9" t="s">
         <v>10</v>
       </c>
       <c r="AO8" s="7" t="s">
@@ -899,7 +959,7 @@
       <c r="AR8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AS8" s="10" t="s">
+      <c r="AS8" s="9" t="s">
         <v>10</v>
       </c>
       <c r="AT8" s="7" t="s">
@@ -914,7 +974,7 @@
       <c r="AW8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AX8" s="10" t="s">
+      <c r="AX8" s="9" t="s">
         <v>10</v>
       </c>
       <c r="AY8" s="7" t="s">
@@ -929,7 +989,7 @@
       <c r="BB8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="BC8" s="10" t="s">
+      <c r="BC8" s="9" t="s">
         <v>10</v>
       </c>
       <c r="BD8" s="7" t="s">
@@ -944,7 +1004,7 @@
       <c r="BG8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="BH8" s="10" t="s">
+      <c r="BH8" s="9" t="s">
         <v>10</v>
       </c>
       <c r="BI8" s="7" t="s">
@@ -959,7 +1019,7 @@
       <c r="BL8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="BM8" s="10" t="s">
+      <c r="BM8" s="9" t="s">
         <v>10</v>
       </c>
       <c r="BN8" s="7" t="s">
@@ -974,7 +1034,7 @@
       <c r="BQ8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="BR8" s="10" t="s">
+      <c r="BR8" s="9" t="s">
         <v>10</v>
       </c>
       <c r="BS8" s="7" t="s">
@@ -989,7 +1049,7 @@
       <c r="BV8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="BW8" s="10" t="s">
+      <c r="BW8" s="9" t="s">
         <v>10</v>
       </c>
       <c r="BX8" s="7" t="s">
@@ -1004,7 +1064,7 @@
       <c r="CA8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CB8" s="10" t="s">
+      <c r="CB8" s="9" t="s">
         <v>10</v>
       </c>
       <c r="CC8" s="7" t="s">

--- a/TP_Testes.xlsx
+++ b/TP_Testes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilizador\Desktop\Pedro\2o Ano\1o Semestre\IIA\TP\tp_iia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\35191\Documents\GitHub\tp_iia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9483E9BD-E2EB-4EE7-A06D-548BE7E23114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C1F791-27D2-4473-B900-EA758336B468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F444EBC4-F813-4FD1-88AE-F973EB7F9AB3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F444EBC4-F813-4FD1-88AE-F973EB7F9AB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="36">
   <si>
     <t>Introdução à Inteligência Artificial - Estudo Experimental do Trabalho Prático</t>
   </si>
@@ -183,7 +186,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -455,12 +458,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -537,6 +551,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -854,46 +884,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE8E33B-214D-4F57-8F69-039E54634E93}">
   <dimension ref="B2:BC54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="25" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="25" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" customWidth="1"/>
-    <col min="9" max="9" width="23.7109375" style="44" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" customWidth="1"/>
-    <col min="13" max="13" width="6.85546875" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" customWidth="1"/>
-    <col min="15" max="15" width="20.85546875" customWidth="1"/>
-    <col min="16" max="16" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="23.6640625" style="44" customWidth="1"/>
+    <col min="10" max="10" width="8.44140625" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" customWidth="1"/>
+    <col min="13" max="13" width="6.88671875" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" customWidth="1"/>
+    <col min="15" max="15" width="20.88671875" customWidth="1"/>
+    <col min="16" max="16" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="2:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="2:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:55" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="2:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
@@ -983,7 +1013,7 @@
       <c r="BB8" s="3"/>
       <c r="BC8" s="4"/>
     </row>
-    <row r="9" spans="2:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="7" t="s">
         <v>2</v>
       </c>
@@ -1147,9 +1177,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B10" s="40">
-        <v>15</v>
+    <row r="10" spans="2:55" x14ac:dyDescent="0.3">
+      <c r="B10" s="50">
+        <v>30</v>
       </c>
       <c r="C10" s="32">
         <v>0</v>
@@ -1160,140 +1190,326 @@
       <c r="E10" s="24">
         <v>0</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="51">
         <v>0</v>
       </c>
       <c r="G10" s="32">
         <v>1</v>
       </c>
-      <c r="H10" s="17"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
+      <c r="H10" s="17">
+        <v>0</v>
+      </c>
+      <c r="I10" s="52">
+        <v>1</v>
+      </c>
+      <c r="J10" s="17">
+        <f>AVERAGE(M10,P10,R10,V10,Y10,AA10,AD10,AH10,AK10,AN10,AQ10,AT10,AW10,AZ10)</f>
+        <v>147.90909090909091</v>
+      </c>
+      <c r="K10" s="17">
+        <v>0</v>
+      </c>
       <c r="L10" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
+      <c r="M10" s="17">
+        <v>146</v>
+      </c>
+      <c r="N10" s="17">
+        <v>0</v>
+      </c>
       <c r="O10" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="17"/>
-      <c r="AA10" s="17"/>
-      <c r="AB10" s="17"/>
-      <c r="AC10" s="17"/>
-      <c r="AD10" s="17"/>
-      <c r="AE10" s="17"/>
-      <c r="AF10" s="17"/>
-      <c r="AG10" s="17"/>
-      <c r="AH10" s="17"/>
-      <c r="AI10" s="17"/>
-      <c r="AJ10" s="17"/>
-      <c r="AK10" s="17"/>
-      <c r="AL10" s="17"/>
-      <c r="AM10" s="17"/>
-      <c r="AN10" s="17"/>
-      <c r="AO10" s="17"/>
-      <c r="AP10" s="17"/>
-      <c r="AQ10" s="17"/>
-      <c r="AR10" s="17"/>
-      <c r="AS10" s="17"/>
-      <c r="AT10" s="17"/>
-      <c r="AU10" s="17"/>
-      <c r="AV10" s="17"/>
-      <c r="AW10" s="17"/>
-      <c r="AX10" s="17"/>
-      <c r="AY10" s="17"/>
-      <c r="AZ10" s="17"/>
-      <c r="BA10" s="17"/>
-      <c r="BB10" s="17"/>
-      <c r="BC10" s="18"/>
+      <c r="P10" s="15">
+        <v>145</v>
+      </c>
+      <c r="Q10" s="17">
+        <v>0</v>
+      </c>
+      <c r="R10" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="S10" s="17">
+        <v>145</v>
+      </c>
+      <c r="T10" s="17">
+        <v>0</v>
+      </c>
+      <c r="U10" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="V10" s="17">
+        <v>156</v>
+      </c>
+      <c r="W10" s="17">
+        <v>0</v>
+      </c>
+      <c r="X10" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y10" s="17">
+        <v>149</v>
+      </c>
+      <c r="Z10" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB10" s="17">
+        <v>151</v>
+      </c>
+      <c r="AC10" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE10" s="17">
+        <v>140</v>
+      </c>
+      <c r="AF10" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH10" s="17">
+        <v>144</v>
+      </c>
+      <c r="AI10" s="17">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK10" s="17">
+        <v>149</v>
+      </c>
+      <c r="AL10" s="17">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN10" s="17">
+        <v>150</v>
+      </c>
+      <c r="AO10" s="17">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ10" s="17">
+        <v>153</v>
+      </c>
+      <c r="AR10" s="17">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="AT10" s="17">
+        <v>144</v>
+      </c>
+      <c r="AU10" s="17">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="AW10" s="17">
+        <v>150</v>
+      </c>
+      <c r="AX10" s="17">
+        <v>0</v>
+      </c>
+      <c r="AY10" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="AZ10" s="17">
+        <v>141</v>
+      </c>
+      <c r="BA10" s="17">
+        <v>0</v>
+      </c>
+      <c r="BB10" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="BC10" s="18">
+        <v>151</v>
+      </c>
     </row>
-    <row r="11" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B11" s="41">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C11" s="36">
         <v>0</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="34">
         <v>0.02</v>
       </c>
       <c r="E11" s="34">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F11" s="53">
         <v>0.01</v>
       </c>
       <c r="G11" s="36">
         <v>5</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
+      <c r="H11" s="15">
+        <v>0</v>
+      </c>
+      <c r="I11" s="54">
+        <v>1</v>
+      </c>
+      <c r="J11" s="15">
+        <f>AVERAGE(M11,P11,R11,V11,Y11,AA11,AD11,AH11,AK11,AN11,AQ11,AT11,AW11,AZ11)</f>
+        <v>204.36363636363637</v>
+      </c>
+      <c r="K11" s="15">
+        <v>0</v>
+      </c>
       <c r="L11" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
+      <c r="M11" s="15">
+        <v>204</v>
+      </c>
+      <c r="N11" s="15">
+        <v>0</v>
+      </c>
       <c r="O11" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="15"/>
-      <c r="AA11" s="15"/>
-      <c r="AB11" s="15"/>
-      <c r="AC11" s="15"/>
-      <c r="AD11" s="15"/>
-      <c r="AE11" s="15"/>
-      <c r="AF11" s="15"/>
-      <c r="AG11" s="15"/>
-      <c r="AH11" s="15"/>
-      <c r="AI11" s="15"/>
-      <c r="AJ11" s="15"/>
-      <c r="AK11" s="15"/>
-      <c r="AL11" s="15"/>
-      <c r="AM11" s="15"/>
-      <c r="AN11" s="15"/>
-      <c r="AO11" s="15"/>
-      <c r="AP11" s="15"/>
-      <c r="AQ11" s="15"/>
-      <c r="AR11" s="15"/>
-      <c r="AS11" s="15"/>
-      <c r="AT11" s="15"/>
-      <c r="AU11" s="15"/>
-      <c r="AV11" s="15"/>
-      <c r="AW11" s="15"/>
-      <c r="AX11" s="15"/>
-      <c r="AY11" s="15"/>
-      <c r="AZ11" s="15"/>
-      <c r="BA11" s="15"/>
-      <c r="BB11" s="15"/>
-      <c r="BC11" s="20"/>
+      <c r="P11" s="55">
+        <v>183</v>
+      </c>
+      <c r="Q11" s="15">
+        <v>0</v>
+      </c>
+      <c r="R11" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="S11" s="15">
+        <v>220</v>
+      </c>
+      <c r="T11" s="15">
+        <v>0</v>
+      </c>
+      <c r="U11" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="V11" s="15">
+        <v>164</v>
+      </c>
+      <c r="W11" s="15">
+        <v>0</v>
+      </c>
+      <c r="X11" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y11" s="15">
+        <v>181</v>
+      </c>
+      <c r="Z11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB11" s="15">
+        <v>209</v>
+      </c>
+      <c r="AC11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE11" s="15">
+        <v>214</v>
+      </c>
+      <c r="AF11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH11" s="15">
+        <v>204</v>
+      </c>
+      <c r="AI11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK11" s="15">
+        <v>230</v>
+      </c>
+      <c r="AL11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN11" s="15">
+        <v>205</v>
+      </c>
+      <c r="AO11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ11" s="15">
+        <v>242</v>
+      </c>
+      <c r="AR11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AT11" s="15">
+        <v>207</v>
+      </c>
+      <c r="AU11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AW11" s="15">
+        <v>274</v>
+      </c>
+      <c r="AX11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AY11" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AZ11" s="15">
+        <v>154</v>
+      </c>
+      <c r="BA11" s="15">
+        <v>0</v>
+      </c>
+      <c r="BB11" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BC11" s="20">
+        <v>196</v>
+      </c>
     </row>
-    <row r="12" spans="2:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="42">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C12" s="39">
         <v>0</v>
@@ -1304,72 +1520,165 @@
       <c r="E12" s="37">
         <v>0.15</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="56">
         <v>0.02</v>
       </c>
       <c r="G12" s="39">
         <v>10</v>
       </c>
-      <c r="H12" s="22"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
+      <c r="H12" s="22">
+        <v>0</v>
+      </c>
+      <c r="I12" s="57">
+        <v>1</v>
+      </c>
+      <c r="J12" s="22">
+        <f>AVERAGE(M12,P12,R12,V12,Y12,AA12,AD12,AH12,AK12,AN12,AQ12,AT12,AW12,AZ12)</f>
+        <v>242.36363636363637</v>
+      </c>
+      <c r="K12" s="22">
+        <v>0</v>
+      </c>
       <c r="L12" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
+      <c r="M12" s="22">
+        <v>223</v>
+      </c>
+      <c r="N12" s="22">
+        <v>0</v>
+      </c>
       <c r="O12" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="22"/>
-      <c r="W12" s="22"/>
-      <c r="X12" s="22"/>
-      <c r="Y12" s="22"/>
-      <c r="Z12" s="22"/>
-      <c r="AA12" s="22"/>
-      <c r="AB12" s="22"/>
-      <c r="AC12" s="22"/>
-      <c r="AD12" s="22"/>
-      <c r="AE12" s="22"/>
-      <c r="AF12" s="22"/>
-      <c r="AG12" s="22"/>
-      <c r="AH12" s="22"/>
-      <c r="AI12" s="22"/>
-      <c r="AJ12" s="22"/>
-      <c r="AK12" s="22"/>
-      <c r="AL12" s="22"/>
-      <c r="AM12" s="22"/>
-      <c r="AN12" s="22"/>
-      <c r="AO12" s="22"/>
-      <c r="AP12" s="22"/>
-      <c r="AQ12" s="22"/>
-      <c r="AR12" s="22"/>
-      <c r="AS12" s="22"/>
-      <c r="AT12" s="22"/>
-      <c r="AU12" s="22"/>
-      <c r="AV12" s="22"/>
-      <c r="AW12" s="22"/>
-      <c r="AX12" s="22"/>
-      <c r="AY12" s="22"/>
-      <c r="AZ12" s="22"/>
-      <c r="BA12" s="22"/>
-      <c r="BB12" s="22"/>
-      <c r="BC12" s="23"/>
+      <c r="P12" s="22">
+        <v>425</v>
+      </c>
+      <c r="Q12" s="22">
+        <v>0</v>
+      </c>
+      <c r="R12" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="S12" s="22">
+        <v>270</v>
+      </c>
+      <c r="T12" s="22">
+        <v>0</v>
+      </c>
+      <c r="U12" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="V12" s="22">
+        <v>126</v>
+      </c>
+      <c r="W12" s="22">
+        <v>0</v>
+      </c>
+      <c r="X12" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y12" s="22">
+        <v>153</v>
+      </c>
+      <c r="Z12" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB12" s="22">
+        <v>263</v>
+      </c>
+      <c r="AC12" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE12" s="22">
+        <v>316</v>
+      </c>
+      <c r="AF12" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH12" s="22">
+        <v>233</v>
+      </c>
+      <c r="AI12" s="22">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK12" s="22">
+        <v>183</v>
+      </c>
+      <c r="AL12" s="22">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN12" s="22">
+        <v>175</v>
+      </c>
+      <c r="AO12" s="22">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ12" s="22">
+        <v>272</v>
+      </c>
+      <c r="AR12" s="22">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="AT12" s="22">
+        <v>379</v>
+      </c>
+      <c r="AU12" s="22">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="AW12" s="22">
+        <v>287</v>
+      </c>
+      <c r="AX12" s="22">
+        <v>0</v>
+      </c>
+      <c r="AY12" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="AZ12" s="22">
+        <v>210</v>
+      </c>
+      <c r="BA12" s="22">
+        <v>0</v>
+      </c>
+      <c r="BB12" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="BC12" s="23">
+        <v>240</v>
+      </c>
     </row>
-    <row r="14" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="2:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="2:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:55" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="2:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
@@ -1459,7 +1768,7 @@
       <c r="BB16" s="3"/>
       <c r="BC16" s="4"/>
     </row>
-    <row r="17" spans="2:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="7" t="s">
         <v>2</v>
       </c>
@@ -1623,7 +1932,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B18" s="40">
         <v>95</v>
       </c>
@@ -1788,7 +2097,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="19" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B19" s="41">
         <v>95</v>
       </c>
@@ -1953,7 +2262,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="2:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="42">
         <v>95</v>
       </c>
@@ -2118,13 +2427,13 @@
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="2:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="2:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:55" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="2:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="2" t="s">
         <v>9</v>
       </c>
@@ -2214,7 +2523,7 @@
       <c r="BB24" s="3"/>
       <c r="BC24" s="4"/>
     </row>
-    <row r="25" spans="2:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="7" t="s">
         <v>2</v>
       </c>
@@ -2378,7 +2687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B26" s="40">
         <v>15</v>
       </c>
@@ -2449,7 +2758,7 @@
       <c r="BB26" s="17"/>
       <c r="BC26" s="18"/>
     </row>
-    <row r="27" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B27" s="41">
         <v>15</v>
       </c>
@@ -2520,7 +2829,7 @@
       <c r="BB27" s="15"/>
       <c r="BC27" s="20"/>
     </row>
-    <row r="28" spans="2:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="42">
         <v>15</v>
       </c>
@@ -2591,21 +2900,21 @@
       <c r="BB28" s="22"/>
       <c r="BC28" s="23"/>
     </row>
-    <row r="30" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="2:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:55" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="2:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="2" t="s">
         <v>9</v>
       </c>
@@ -2695,7 +3004,7 @@
       <c r="BB34" s="3"/>
       <c r="BC34" s="4"/>
     </row>
-    <row r="35" spans="2:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="7" t="s">
         <v>2</v>
       </c>
@@ -2859,7 +3168,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B36" s="16"/>
       <c r="C36" s="17"/>
       <c r="D36" s="17"/>
@@ -2915,7 +3224,7 @@
       <c r="BB36" s="17"/>
       <c r="BC36" s="18"/>
     </row>
-    <row r="37" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B37" s="19"/>
       <c r="C37" s="15"/>
       <c r="D37" s="14"/>
@@ -2971,7 +3280,7 @@
       <c r="BB37" s="15"/>
       <c r="BC37" s="20"/>
     </row>
-    <row r="38" spans="2:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="21"/>
       <c r="C38" s="22"/>
       <c r="D38" s="22"/>
@@ -3027,13 +3336,13 @@
       <c r="BB38" s="22"/>
       <c r="BC38" s="23"/>
     </row>
-    <row r="40" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="2:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="2:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:55" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="2:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="2" t="s">
         <v>9</v>
       </c>
@@ -3123,7 +3432,7 @@
       <c r="BB42" s="3"/>
       <c r="BC42" s="4"/>
     </row>
-    <row r="43" spans="2:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="7" t="s">
         <v>2</v>
       </c>
@@ -3287,7 +3596,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B44" s="16"/>
       <c r="C44" s="17"/>
       <c r="D44" s="17"/>
@@ -3343,7 +3652,7 @@
       <c r="BB44" s="17"/>
       <c r="BC44" s="18"/>
     </row>
-    <row r="45" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B45" s="19"/>
       <c r="C45" s="15"/>
       <c r="D45" s="14"/>
@@ -3399,7 +3708,7 @@
       <c r="BB45" s="15"/>
       <c r="BC45" s="20"/>
     </row>
-    <row r="46" spans="2:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46" s="21"/>
       <c r="C46" s="22"/>
       <c r="D46" s="22"/>
@@ -3455,13 +3764,13 @@
       <c r="BB46" s="22"/>
       <c r="BC46" s="23"/>
     </row>
-    <row r="48" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="2:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="2:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:55" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="50" spans="2:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B50" s="2" t="s">
         <v>9</v>
       </c>
@@ -3551,7 +3860,7 @@
       <c r="BB50" s="3"/>
       <c r="BC50" s="4"/>
     </row>
-    <row r="51" spans="2:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51" s="7" t="s">
         <v>2</v>
       </c>
@@ -3715,7 +4024,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B52" s="16"/>
       <c r="C52" s="17"/>
       <c r="D52" s="17"/>
@@ -3771,7 +4080,7 @@
       <c r="BB52" s="17"/>
       <c r="BC52" s="18"/>
     </row>
-    <row r="53" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B53" s="19"/>
       <c r="C53" s="15"/>
       <c r="D53" s="14"/>
@@ -3827,7 +4136,7 @@
       <c r="BB53" s="15"/>
       <c r="BC53" s="20"/>
     </row>
-    <row r="54" spans="2:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B54" s="21"/>
       <c r="C54" s="22"/>
       <c r="D54" s="22"/>
